--- a/docs/gestao_de_risco/Planilha de Riscos.xlsx
+++ b/docs/gestao_de_risco/Planilha de Riscos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizvi\OneDrive\Área de Trabalho\queijo-minas pi\queijo-minas\docs\gestao_de_risco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/beatriz_boliveira_sptech_school/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E086A-F99A-43E0-965A-C99287788D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC88CF1B-6412-4736-8D1A-80692F302CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{566A31F0-2679-44E7-B35B-36B700817E1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{566A31F0-2679-44E7-B35B-36B700817E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,61 +36,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Alto (3)</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Descrição do risco</t>
+  </si>
+  <si>
+    <t>Probabilidade                1 - Baixa                                       2 - Média                              3 - Alta</t>
+  </si>
+  <si>
+    <t>Impacto (I)                         1- Baixo                               2 - Médio                         3 - Alto</t>
+  </si>
+  <si>
+    <t>Fator de Risco                   (P)x(I)</t>
+  </si>
+  <si>
+    <t>Ação                        -Eliminar                     -Mitigar</t>
+  </si>
+  <si>
+    <t>Como?</t>
+  </si>
+  <si>
     <t>Médio (2)</t>
   </si>
   <si>
+    <t>Desorganização do backlog impactando entregas</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Utilizar ferramentas de gestão de backlog (Trello). MITIGAR o problema ao organizar as demandas</t>
+  </si>
+  <si>
     <t>Baixo (1)</t>
   </si>
   <si>
-    <t>Provável</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Descrição do risco</t>
-  </si>
-  <si>
-    <t>Como?</t>
-  </si>
-  <si>
-    <t>Impacto (I)                         1- Baixo                               2 - Médio                         3 - Alto</t>
-  </si>
-  <si>
-    <t>Fator de Risco                   (P)x(I)</t>
-  </si>
-  <si>
-    <t>Ação                        -Eliminar                     -Mitigar</t>
-  </si>
-  <si>
-    <t>Perder um integrante da equipe</t>
-  </si>
-  <si>
-    <t>Dificuldade de comunicação entre integrantes da equipe</t>
+    <t>Expectativas do cliente não atendidas</t>
+  </si>
+  <si>
+    <t>mitigar</t>
+  </si>
+  <si>
+    <t>Prototipar e validar a interface com o cliente.
+ MITIGAR o problema ao envolver o cliente no processo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouco  provável(1)  </t>
+  </si>
+  <si>
+    <t>Provável(2)</t>
+  </si>
+  <si>
+    <t>Muito provável(3)</t>
+  </si>
+  <si>
+    <t>Definição imprecisa das métricas a serem coletadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reuniões para definição clara de métricas
+ com cliente. MITIGAR o problema por meio de comunicação clara.</t>
+  </si>
+  <si>
+    <t>Problemas de compatibilidade de software</t>
+  </si>
+  <si>
+    <t>Verificar requisitos de sistema antes da instalação.
+ MITIGAR o problema ao garantir que o ambiente esteja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falha na captura de informações devido posicionamento ou falha de comunicação com o sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inspeção periódica na instalação dos sensores e 
+sua comunicação com o sistema e conexão.</t>
+  </si>
+  <si>
+    <t>API não funciona como esperado</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Desenvolver testes e de integração para a API.
+ ELIMINAR o problema ao validar o funcionamento antes do uso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Complexidade na modelagem causando atrasos</t>
+  </si>
+  <si>
+    <t>Dividir a modelagem em etapas menores.
+ MITIGAR o problema ao facilitar a execução.</t>
+  </si>
+  <si>
+    <t>Requisitos da dashboard não alinhados com expectativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realizar reuniões com cliente para
+ revisão de requisitos. MITIGAR o problema através de comunicação constante.</t>
+  </si>
+  <si>
+    <t>Desalinhamento nas prioridades da sprint.</t>
+  </si>
+  <si>
+    <t>Realizar uma reunião de planejamento 
+detalhada antes da sprint. MITIGAR o problema ao garantir entendimento comum.</t>
+  </si>
+  <si>
+    <t>Não identificação de novos riscos durante o projeto.</t>
+  </si>
+  <si>
+    <t>Revisões periódicas da lista de riscos.
+ MITIGAR o problema ao manter a lista atualizada</t>
+  </si>
+  <si>
+    <t>O site não atender às necessidades dos usuários.</t>
+  </si>
+  <si>
+    <t>Conduzir testes de usabilidade antes 
+do lançamento. ELIMINAR o problema ao validar o site com o uso dele e com o cliente.</t>
+  </si>
+  <si>
+    <t>Falta de clareza nas informações do relatório.</t>
+  </si>
+  <si>
+    <t>Criar um modelo padrão de relatório.
+ MITIGAR o problema ao padronizar a informação.</t>
+  </si>
+  <si>
+    <t>Alterações frequentes no protótipo</t>
+  </si>
+  <si>
+    <t>Definir um escopo fixo para a fase de prototipagem. 
+MITIGAR o problema ao controlar as mudanças.</t>
+  </si>
+  <si>
+    <t>Falta de visibilidade nas tarefas da sprint</t>
+  </si>
+  <si>
+    <t>Atualizações diárias da sprint com a equipe.
+ MITIGAR o problema ao melhorar a comunicação</t>
+  </si>
+  <si>
+    <t>Desorganização do backlog impactando entregas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utilizar ferramentas de gestão de backlog (Trello).
+ MITIGAR o problema ao organizar as demandas.</t>
+  </si>
+  <si>
+    <t>Vulnerabilidades no processo de recuperação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementar verificações de segurança
+ durante a recuperação. ELIMINAR o problema ao aumentar a segurança do processo.</t>
+  </si>
+  <si>
+    <t>Problemas de compatibilidade de software.</t>
+  </si>
+  <si>
+    <t>Verificar requisitos de sistema antes 
+da instalação. MITIGAR o problema ao garantir que o ambiente esteja correto.</t>
+  </si>
+  <si>
+    <t>Integração falha entre sensor e sistema.</t>
+  </si>
+  <si>
+    <t>Realizar testes de integração em sala.
+ ELIMINAR o problema ao garantir que a integração funcione.</t>
+  </si>
+  <si>
+    <t>Usuário não saber como utilizar o sistema</t>
+  </si>
+  <si>
+    <t>Através de uma documentação eficiente 
+e clara, deixar tudo documentado e explicativo para que pessoas não técnicas entendam como utilizar</t>
+  </si>
+  <si>
+    <t>A planilha de riscos não estar completa ou atualizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estabelecer revisões periódicas da planilha e
+ designar um responsável para garantir que todos os riscos sejam identificados e monitorados; Mitigar.</t>
+  </si>
+  <si>
+    <t>Formatação de computador e perda de arquivos</t>
+  </si>
+  <si>
+    <t>Criar backups em diversos locais 
+de armazenamento PARA ELIMINAR perdas</t>
   </si>
   <si>
     <t>Falta de comprometimento com as entregas do Projeto</t>
   </si>
   <si>
-    <t>Probabilidade                1 - Baixa                                       2 - Média                              3 - Alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouco  provável  </t>
-  </si>
-  <si>
-    <t>Muito provável</t>
+    <t>Fazer dailys diariamente, para entender como está funcionando a equipe e o andamento das entregas, e prestar suporte caso algum dos membros estiver com dificuldades que estejam impactando as entregas, e com as dailys podemos 
+rastrear rapidamente o problema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +259,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +312,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -163,21 +349,112 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -186,40 +463,141 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,163 +933,871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDE2FF4-E73B-4CE6-AA12-B363EEBA8F5A}">
-  <dimension ref="B5:M19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="8" max="8" width="55.6328125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27"/>
+    <col min="8" max="8" width="55.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="12" style="30" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+    <row r="1" spans="2:14" ht="55.15" customHeight="1">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C1" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D1" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E1" s="6">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="L1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="2:14" ht="57.75">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="32">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32">
+        <v>3</v>
+      </c>
+      <c r="K2" s="35">
+        <v>3</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="57.75">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="G3" s="29">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+      <c r="J3" s="33">
+        <v>3</v>
+      </c>
+      <c r="K3" s="36">
+        <v>3</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="72.599999999999994" thickBot="1">
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="29">
+        <v>3</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="33">
+        <v>1</v>
+      </c>
+      <c r="J4" s="33">
+        <v>2</v>
+      </c>
+      <c r="K4" s="36">
+        <v>2</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="57.6">
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="29">
+        <v>4</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="33">
+        <v>2</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
+        <v>2</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="57.6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="29">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3</v>
+      </c>
+      <c r="J6" s="30">
+        <v>2</v>
+      </c>
+      <c r="K6" s="34">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="57.6">
+      <c r="G7" s="29">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="30">
+        <v>3</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="57.6">
+      <c r="G8" s="29">
         <v>7</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="30">
+        <v>2</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="72">
+      <c r="G9" s="29">
         <v>8</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>2</v>
+      </c>
+      <c r="K9" s="34">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="72">
+      <c r="G10" s="29">
         <v>9</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30">
+        <v>2</v>
+      </c>
+      <c r="K10" s="34">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="57.6">
+      <c r="G11" s="29">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>2</v>
+      </c>
+      <c r="K11" s="34">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="72">
+      <c r="G12" s="29">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="30">
+        <v>2</v>
+      </c>
+      <c r="J12" s="30">
+        <v>2</v>
+      </c>
+      <c r="K12" s="34">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="57.6">
+      <c r="G13" s="29">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1</v>
+      </c>
+      <c r="J13" s="30">
+        <v>2</v>
+      </c>
+      <c r="K13" s="34">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="57.6">
+      <c r="G14" s="29">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="30">
+        <v>2</v>
+      </c>
+      <c r="K14" s="34">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="57.6">
+      <c r="G15" s="29">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="30">
+        <v>2</v>
+      </c>
+      <c r="K15" s="34">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="57.6">
+      <c r="G16" s="29">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30">
+        <v>2</v>
+      </c>
+      <c r="K16" s="34">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" ht="86.45">
+      <c r="G17" s="29">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="30">
+        <v>2</v>
+      </c>
+      <c r="K17" s="34">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" ht="72">
+      <c r="G18" s="29">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="30">
+        <v>1</v>
+      </c>
+      <c r="J18" s="30">
+        <v>2</v>
+      </c>
+      <c r="K18" s="34">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" ht="72">
+      <c r="G19" s="29">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="30">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="J19" s="30">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34">
         <v>3</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="9">
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="86.45">
+      <c r="G20" s="29">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="30">
+        <v>2</v>
+      </c>
+      <c r="J20" s="30">
+        <v>2</v>
+      </c>
+      <c r="K20" s="34">
         <v>4</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="86.45">
+      <c r="G21" s="29">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="30">
+        <v>1</v>
+      </c>
+      <c r="J21" s="30">
+        <v>2</v>
+      </c>
+      <c r="K21" s="34">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" ht="57.6">
+      <c r="G22" s="29">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1</v>
+      </c>
+      <c r="J22" s="30">
         <v>3</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="K22" s="34">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" ht="158.44999999999999">
+      <c r="G23" s="29">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="30">
+        <v>1</v>
+      </c>
+      <c r="J23" s="30">
+        <v>3</v>
+      </c>
+      <c r="K23" s="34">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" ht="15"/>
+    <row r="25" spans="7:13" ht="15"/>
+    <row r="26" spans="7:13" ht="15"/>
+    <row r="27" spans="7:13" ht="15"/>
+    <row r="28" spans="7:13" ht="15"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="12" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080A269BF505ACD4B84A4678488096051" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="922643baae8aa488ed079a979f169c7e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="32844186-265b-4793-912a-671da4ac73b2" xmlns:ns4="97232348-304c-4ff8-affc-b0d6bfd913f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f7ae9ba316fd031895f045c1b6e4bc8" ns3:_="" ns4:_="">
+    <xsd:import namespace="32844186-265b-4793-912a-671da4ac73b2"/>
+    <xsd:import namespace="97232348-304c-4ff8-affc-b0d6bfd913f5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32844186-265b-4793-912a-671da4ac73b2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="12" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="97232348-304c-4ff8-affc-b0d6bfd913f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="15" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="32844186-265b-4793-912a-671da4ac73b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64058FFA-6FBA-4760-B683-F9BC78879E3E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFED3C9F-DE7C-4D6E-B066-2A68A059D1FA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233F5594-A008-4930-9DC7-D8B5F4255C0C}"/>
 </file>